--- a/results/pvalue_SIDER_rare_enzyme_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_enzyme_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.057</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.486</t>
+          <t>3.771</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.071</t>
+          <t>3.489</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.941</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.762</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.624</t>
+          <t>20.705</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18.042</t>
+          <t>18.081</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.613</t>
+          <t>33.873</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>43.392</t>
+          <t>43.495</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.146</t>
+          <t>11.447</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
